--- a/data/trans_orig/P79A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>32030</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21250</v>
+        <v>22022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49247</v>
+        <v>48530</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05536369231886375</v>
+        <v>0.05536369231886376</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03673113681755734</v>
+        <v>0.03806473152710739</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0851245952676092</v>
+        <v>0.0838846921899515</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -762,19 +762,19 @@
         <v>24420</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17209</v>
+        <v>16646</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34202</v>
+        <v>33325</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02970645362001648</v>
+        <v>0.02970645362001649</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02093469022981742</v>
+        <v>0.02025020780268132</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04160648885949567</v>
+        <v>0.04053945592424962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -783,19 +783,19 @@
         <v>56449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42970</v>
+        <v>42765</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75910</v>
+        <v>74613</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04030463586770758</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03068027467729999</v>
+        <v>0.03053438234543422</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0541996597459568</v>
+        <v>0.05327344921125442</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>546499</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>529282</v>
+        <v>529999</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>557279</v>
+        <v>556507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9446363076811364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9148754047323898</v>
+        <v>0.9161153078100484</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9632688631824425</v>
+        <v>0.9619352684728926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1393</v>
@@ -833,19 +833,19 @@
         <v>797618</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>787836</v>
+        <v>788713</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>804829</v>
+        <v>805392</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9702935463799836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9583935111405043</v>
+        <v>0.9594605440757503</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9790653097701826</v>
+        <v>0.9797497921973187</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2056</v>
@@ -854,19 +854,19 @@
         <v>1344118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1324657</v>
+        <v>1325954</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1357597</v>
+        <v>1357802</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9596953641322924</v>
+        <v>0.9596953641322923</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9458003402540431</v>
+        <v>0.9467265507887456</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9693197253227001</v>
+        <v>0.9694656176545657</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>50966</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36023</v>
+        <v>34072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72873</v>
+        <v>71977</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02284904825170116</v>
+        <v>0.02284904825170115</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01614953501578778</v>
+        <v>0.01527504457597731</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03267036903369253</v>
+        <v>0.03226849087675539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -979,19 +979,19 @@
         <v>53748</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39704</v>
+        <v>39829</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72381</v>
+        <v>73960</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02475270552701513</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0182850928541913</v>
+        <v>0.01834242487248191</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03333380268622239</v>
+        <v>0.03406121839297509</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -1000,19 +1000,19 @@
         <v>104714</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82570</v>
+        <v>84051</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131682</v>
+        <v>128618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02378808173935592</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01875755830171405</v>
+        <v>0.01909398312864823</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02991448803970065</v>
+        <v>0.02921844130810174</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2179600</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2157693</v>
+        <v>2158589</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2194543</v>
+        <v>2196494</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9771509517482989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9673296309663073</v>
+        <v>0.9677315091232445</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9838504649842121</v>
+        <v>0.9847249554240224</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2865</v>
@@ -1050,19 +1050,19 @@
         <v>2117644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2099011</v>
+        <v>2097432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2131688</v>
+        <v>2131563</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.975247294472985</v>
+        <v>0.9752472944729847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9666661973137771</v>
+        <v>0.9659387816070248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9817149071458086</v>
+        <v>0.9816575751275182</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4819</v>
@@ -1071,19 +1071,19 @@
         <v>4297245</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4270277</v>
+        <v>4273341</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4319389</v>
+        <v>4317908</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9762119182606439</v>
+        <v>0.9762119182606441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9700855119602991</v>
+        <v>0.9707815586918983</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9812424416982859</v>
+        <v>0.9809060168713519</v>
       </c>
     </row>
     <row r="9">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8313</v>
+        <v>7840</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.003324628030615704</v>
+        <v>0.003324628030615703</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01168259933663568</v>
+        <v>0.01101762924435926</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1196,19 +1196,19 @@
         <v>6112</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12899</v>
+        <v>13679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008316685475782773</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003262907088755337</v>
+        <v>0.003262221918191909</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01755267508101556</v>
+        <v>0.01861439450952354</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1217,19 +1217,19 @@
         <v>8478</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4283</v>
+        <v>4106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16566</v>
+        <v>16521</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.005860846567754921</v>
+        <v>0.00586084656775492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002961325166189512</v>
+        <v>0.002838794904724869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01145278764540612</v>
+        <v>0.0114215400421004</v>
       </c>
     </row>
     <row r="11">
@@ -1246,16 +1246,16 @@
         <v>709221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>703274</v>
+        <v>703747</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>711587</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9966753719693844</v>
+        <v>0.9966753719693843</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9883174006633645</v>
+        <v>0.9889823707556414</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>728765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>721978</v>
+        <v>721198</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>732479</v>
+        <v>732480</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9916833145242171</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9824473249189845</v>
+        <v>0.9813856054904773</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9967370929112448</v>
+        <v>0.9967377780818082</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1677</v>
@@ -1288,19 +1288,19 @@
         <v>1437986</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1429898</v>
+        <v>1429943</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1442181</v>
+        <v>1442358</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9941391534322451</v>
+        <v>0.994139153432245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9885472123545929</v>
+        <v>0.9885784599578996</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9970386748338104</v>
+        <v>0.9971612050952751</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>85362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66343</v>
+        <v>65012</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112385</v>
+        <v>109247</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02424575278495817</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.018843884354177</v>
+        <v>0.01846571903945555</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03192137870212695</v>
+        <v>0.03102999913238183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -1413,19 +1413,19 @@
         <v>84279</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67762</v>
+        <v>67686</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106646</v>
+        <v>104627</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02260527271264313</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01817506066612754</v>
+        <v>0.01815454789297146</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02860432111956215</v>
+        <v>0.02806290028069345</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -1434,19 +1434,19 @@
         <v>169641</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>138668</v>
+        <v>140843</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>198586</v>
+        <v>203630</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02340201955741756</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01912930976880275</v>
+        <v>0.01942931628184943</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02739498333795063</v>
+        <v>0.02809083018876</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3435321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3408298</v>
+        <v>3411436</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3454340</v>
+        <v>3455671</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9757542472150418</v>
+        <v>0.9757542472150419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.968078621297873</v>
+        <v>0.968970000867618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9811561156458232</v>
+        <v>0.9815342809605445</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5256</v>
@@ -1484,19 +1484,19 @@
         <v>3644028</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3621661</v>
+        <v>3623680</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3660545</v>
+        <v>3660621</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.977394727287357</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9713956788804361</v>
+        <v>0.9719370997193066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9818249393338723</v>
+        <v>0.9818454521070287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8552</v>
@@ -1505,19 +1505,19 @@
         <v>7079349</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7050404</v>
+        <v>7045360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7110322</v>
+        <v>7108147</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9765979804425824</v>
+        <v>0.9765979804425826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9726050166620495</v>
+        <v>0.9719091698112395</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9808706902311972</v>
+        <v>0.9805706837181503</v>
       </c>
     </row>
     <row r="15">
